--- a/data/regression_name_list1959.xlsx
+++ b/data/regression_name_list1959.xlsx
@@ -538,7 +538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2854,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3428,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7177,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7627,7 +7627,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
